--- a/src/test/resources/TestDataExcel/TestWorksheet.xlsx
+++ b/src/test/resources/TestDataExcel/TestWorksheet.xlsx
@@ -14,9 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Shipment_20230413135514</t>
+  </si>
+  <si>
+    <t>Shipment_20230413141402</t>
+  </si>
+  <si>
+    <t>Shipment_20230413141647</t>
+  </si>
+  <si>
+    <t>Shipment_20230413143155</t>
+  </si>
+  <si>
+    <t>Shipment_20230413145243</t>
+  </si>
+  <si>
+    <t>Shipment_20230415184155</t>
   </si>
 </sst>
 </file>
@@ -959,13 +974,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.2857142857143" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="55.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="9">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestDataExcel/TestWorksheet.xlsx
+++ b/src/test/resources/TestDataExcel/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Shipment_20230413135514</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Shipment_20230415184155</t>
+  </si>
+  <si>
+    <t>Shipment_20230416094331</t>
   </si>
 </sst>
 </file>
@@ -980,7 +983,7 @@
   <sheetData>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestDataExcel/TestWorksheet.xlsx
+++ b/src/test/resources/TestDataExcel/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Shipment_20230413135514</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Shipment_20230416094331</t>
+  </si>
+  <si>
+    <t>Shipment_20230417120049</t>
   </si>
 </sst>
 </file>
@@ -983,7 +986,7 @@
   <sheetData>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
